--- a/companies_glossary/Adverbs.xlsx
+++ b/companies_glossary/Adverbs.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,22 +389,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>eng-tag</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>dependency</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>afinn sentiment</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>mcdonals sentiment</t>
         </is>
       </c>
     </row>
@@ -414,7 +399,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22153</t>
+          <t>21352</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -435,21 +420,6 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>conj</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -459,7 +429,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1212212</t>
+          <t>1122122</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,21 +450,6 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -504,7 +459,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>62813223</t>
+          <t>22138326</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -525,21 +480,6 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -549,17 +489,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>364265</t>
+          <t>443</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>additionally</t>
+          <t>actuarially</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>additionally</t>
+          <t>actuarially</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -570,21 +510,6 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -594,17 +519,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>71231</t>
+          <t>636254</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>adequately</t>
+          <t>additionally</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>adequately</t>
+          <t>additionally</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -614,22 +539,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1.0</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -639,17 +549,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>91121</t>
+          <t>17312</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>adversely</t>
+          <t>adequately</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>adversely</t>
+          <t>adequately</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -660,21 +570,6 @@
       <c r="F7" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -684,17 +579,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>349258</t>
+          <t>91112</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ahead</t>
+          <t>adversely</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ahead</t>
+          <t>adversely</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -703,21 +598,6 @@
         </is>
       </c>
       <c r="F8" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -729,17 +609,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>437861643</t>
+          <t>211</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>annually</t>
+          <t>aggressively</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>annually</t>
+          <t>aggressively</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -748,21 +628,6 @@
         </is>
       </c>
       <c r="F9" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -774,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5311242</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>appropriately</t>
+          <t>ago</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>appropriately</t>
+          <t>ago</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -795,21 +660,6 @@
       <c r="F10" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -819,17 +669,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22468193</t>
+          <t>852493</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>approximately</t>
+          <t>ahead</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>approximately</t>
+          <t>ahead</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -840,21 +690,6 @@
       <c r="F11" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -864,17 +699,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1712551411</t>
+          <t>112</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>alongside</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>alongside</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -884,22 +719,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>RP</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>prt</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>IN</t>
         </is>
       </c>
     </row>
@@ -909,17 +729,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>113412</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>broadly</t>
+          <t>alternatively</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>broadly</t>
+          <t>alternatively</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -928,21 +748,6 @@
         </is>
       </c>
       <c r="F13" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -954,42 +759,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1121112</t>
+          <t>112</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>close</t>
+          <t>amidst</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>close</t>
+          <t>amidst</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>quantmod</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>IN</t>
         </is>
       </c>
     </row>
@@ -999,17 +789,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>95236105</t>
+          <t>371646834</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>closely</t>
+          <t>annually</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>closely</t>
+          <t>annually</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1020,21 +810,6 @@
       <c r="F15" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1044,17 +819,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>265131</t>
+          <t>1435122</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>collectively</t>
+          <t>appropriately</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>collectively</t>
+          <t>appropriately</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1064,22 +839,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -1089,17 +849,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>73645724</t>
+          <t>34619228</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>consistently</t>
+          <t>approximately</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>consistently</t>
+          <t>approximately</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1108,21 +868,6 @@
         </is>
       </c>
       <c r="F17" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1134,40 +879,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5211</t>
+          <t>1245111157</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>continually</t>
+          <t>back</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>continually</t>
+          <t>back</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1179,17 +909,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>171272462</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>continuously</t>
+          <t>broad</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>continuously</t>
+          <t>broad</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1200,21 +930,6 @@
       <c r="F19" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1224,17 +939,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>21115</t>
+          <t>411123</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>deeply</t>
+          <t>broadly</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>deeply</t>
+          <t>broadly</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1243,21 +958,6 @@
         </is>
       </c>
       <c r="F20" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1269,42 +969,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>104018193381</t>
+          <t>1112211</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>din</t>
+          <t>close</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>din</t>
+          <t>close</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>ROOT</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>RB</t>
         </is>
       </c>
     </row>
@@ -1314,17 +999,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>32213282172612</t>
+          <t>10569325</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>directly</t>
+          <t>closely</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>directly</t>
+          <t>closely</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1333,21 +1018,6 @@
         </is>
       </c>
       <c r="F22" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1359,42 +1029,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>493831121445125</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>due</t>
+          <t>closer</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>due</t>
+          <t>closer</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>amod</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>RBR</t>
         </is>
       </c>
     </row>
@@ -1404,17 +1059,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4311810114</t>
+          <t>521163</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>duly</t>
+          <t>collectively</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>duly</t>
+          <t>collectively</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1425,21 +1080,6 @@
       <c r="F24" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -1449,17 +1089,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>451422</t>
+          <t>123</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>earlier</t>
+          <t>competitively</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>earlier</t>
+          <t>competitively</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1468,21 +1108,6 @@
         </is>
       </c>
       <c r="F25" t="inlineStr">
-        <is>
-          <t>RBR</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1494,17 +1119,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>213112</t>
+          <t>211</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>economically</t>
+          <t>completely</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>economically</t>
+          <t>completely</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1513,21 +1138,6 @@
         </is>
       </c>
       <c r="F26" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1539,17 +1149,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>208111691317</t>
+          <t>42567734</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>effectively</t>
+          <t>consistently</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>effectively</t>
+          <t>consistently</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1560,21 +1170,6 @@
       <c r="F27" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1584,17 +1179,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>11122</t>
+          <t>8125</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>efficiently</t>
+          <t>constantly</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>efficiently</t>
+          <t>constantly</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1605,21 +1200,6 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -1629,17 +1209,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5174</t>
+          <t>2115</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>electronically</t>
+          <t>continually</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>electronically</t>
+          <t>continually</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1648,21 +1228,6 @@
         </is>
       </c>
       <c r="F29" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1674,17 +1239,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>12412</t>
+          <t>742612217</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>environmentally</t>
+          <t>continuously</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>environmentally</t>
+          <t>continuously</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1695,21 +1260,6 @@
       <c r="F30" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1719,17 +1269,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>12221111</t>
+          <t>121</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>extremely</t>
+          <t>contractually</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>extremely</t>
+          <t>contractually</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1738,21 +1288,6 @@
         </is>
       </c>
       <c r="F31" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1764,17 +1299,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7131222</t>
+          <t>166</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>fairly</t>
+          <t>cumulatively</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>fairly</t>
+          <t>cumulatively</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1785,21 +1320,6 @@
       <c r="F32" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1809,17 +1329,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>22132</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>fast</t>
+          <t>deep</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>fast</t>
+          <t>deep</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1830,21 +1350,6 @@
       <c r="F33" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1854,17 +1359,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>465112</t>
+          <t>21511</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>financially</t>
+          <t>deeply</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>financially</t>
+          <t>deeply</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1875,21 +1380,6 @@
       <c r="F34" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1899,17 +1389,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>212221</t>
+          <t>4112</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>formally</t>
+          <t>differently</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>formally</t>
+          <t>differently</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1918,21 +1408,6 @@
         </is>
       </c>
       <c r="F35" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -1944,42 +1419,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>346296596313</t>
+          <t>108114033819</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>forward</t>
+          <t>din</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>forward</t>
+          <t>din</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>prt</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>IN</t>
         </is>
       </c>
     </row>
@@ -1989,17 +1449,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>121315</t>
+          <t>12728326132122</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>frequently</t>
+          <t>directly</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>frequently</t>
+          <t>directly</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2010,21 +1470,6 @@
       <c r="F37" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2034,42 +1479,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>91312444642424</t>
+          <t>454938512121431</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>fully</t>
+          <t>due</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>fully</t>
+          <t>due</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>IN</t>
         </is>
       </c>
     </row>
@@ -2079,17 +1509,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>18101624431411</t>
+          <t>4111101348</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>generally</t>
+          <t>duly</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>generally</t>
+          <t>duly</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2100,21 +1530,6 @@
       <c r="F39" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2124,17 +1539,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>10169132</t>
+          <t>124524</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>globally</t>
+          <t>earlier</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>globally</t>
+          <t>earlier</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2143,21 +1558,6 @@
         </is>
       </c>
       <c r="F40" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -2169,17 +1569,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>31112</t>
+          <t>2111</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>half</t>
+          <t>early</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>half</t>
+          <t>early</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2188,21 +1588,6 @@
         </is>
       </c>
       <c r="F41" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -2214,17 +1599,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2097174107</t>
+          <t>312121</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>highly</t>
+          <t>economically</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>highly</t>
+          <t>economically</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2233,21 +1618,6 @@
         </is>
       </c>
       <c r="F42" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -2259,17 +1629,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>21111</t>
+          <t>162089111713</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>iirc</t>
+          <t>effectively</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>iirc</t>
+          <t>effectively</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2279,22 +1649,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>ROOT</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -2304,17 +1659,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>22911176112</t>
+          <t>11122</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>immediately</t>
+          <t>efficiently</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>immediately</t>
+          <t>efficiently</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2325,21 +1680,6 @@
       <c r="F44" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2349,17 +1689,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>23121</t>
+          <t>7154</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>importantly</t>
+          <t>electronically</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>importantly</t>
+          <t>electronically</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2368,21 +1708,6 @@
         </is>
       </c>
       <c r="F45" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -2394,17 +1719,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>27113</t>
+          <t>24112</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>increasingly</t>
+          <t>environmentally</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>increasingly</t>
+          <t>environmentally</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2413,21 +1738,6 @@
         </is>
       </c>
       <c r="F46" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -2439,17 +1749,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>11122</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>independently</t>
+          <t>ethically</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>independently</t>
+          <t>ethically</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2458,21 +1768,6 @@
         </is>
       </c>
       <c r="F47" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -2484,17 +1779,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>42314232</t>
+          <t>2111</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>indirectly</t>
+          <t>eventually</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>indirectly</t>
+          <t>eventually</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2505,21 +1800,6 @@
       <c r="F48" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>conj</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2529,17 +1809,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3322562</t>
+          <t>112</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>individually</t>
+          <t>exclusively</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>individually</t>
+          <t>exclusively</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2550,21 +1830,6 @@
       <c r="F49" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2574,17 +1839,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>21261561410</t>
+          <t>121</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>initially</t>
+          <t>explicitly</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>initially</t>
+          <t>explicitly</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2595,21 +1860,6 @@
       <c r="F50" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2619,17 +1869,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>133722</t>
+          <t>423</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>internally</t>
+          <t>externally</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>internally</t>
+          <t>externally</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2640,21 +1890,6 @@
       <c r="F51" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2664,17 +1899,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1113241</t>
+          <t>12121112</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>jointly</t>
+          <t>extremely</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>jointly</t>
+          <t>extremely</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2683,21 +1918,6 @@
         </is>
       </c>
       <c r="F52" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -2709,17 +1929,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>12110</t>
+          <t>7231221</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>kindly</t>
+          <t>fairly</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>kindly</t>
+          <t>fairly</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2730,21 +1950,6 @@
       <c r="F53" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2754,17 +1959,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>12318</t>
+          <t>31222</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>largely</t>
+          <t>fast</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>largely</t>
+          <t>fast</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2773,21 +1978,6 @@
         </is>
       </c>
       <c r="F54" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -2799,17 +1989,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>46244</t>
+          <t>412</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>legally</t>
+          <t>faster</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>legally</t>
+          <t>faster</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2819,22 +2009,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>3.0</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2844,17 +2019,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>23281</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>fastest</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>fastest</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2864,22 +2039,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>RBS</t>
         </is>
       </c>
     </row>
@@ -2889,17 +2049,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>115916144</t>
+          <t>541162</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>longer</t>
+          <t>financially</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>longer</t>
+          <t>financially</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2908,21 +2068,6 @@
         </is>
       </c>
       <c r="F57" t="inlineStr">
-        <is>
-          <t>RBR</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -2934,17 +2079,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1161112</t>
+          <t>412</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>mandatorily</t>
+          <t>firmly</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>mandatorily</t>
+          <t>firmly</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2953,21 +2098,6 @@
         </is>
       </c>
       <c r="F58" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -2979,17 +2109,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>826714711</t>
+          <t>121222</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>materially</t>
+          <t>formally</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>materially</t>
+          <t>formally</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2998,21 +2128,6 @@
         </is>
       </c>
       <c r="F59" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -3024,17 +2139,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2121311</t>
+          <t>631665932934</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>nadu</t>
+          <t>forward</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>nadu</t>
+          <t>forward</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3045,21 +2160,6 @@
       <c r="F60" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>conj</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3069,17 +2169,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>31431222</t>
+          <t>315112</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t>frequently</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t>frequently</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3088,21 +2188,6 @@
         </is>
       </c>
       <c r="F61" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>ROOT</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -3114,17 +2199,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>22211341</t>
+          <t>12134244964244</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>fully</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>fully</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3135,21 +2220,6 @@
       <c r="F62" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>ROOT</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3159,17 +2229,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>11221</t>
+          <t>21441016184311</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>generally</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>partially</t>
+          <t>generally</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3180,21 +2250,6 @@
       <c r="F63" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3204,17 +2259,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>11211136</t>
+          <t>93210116</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>partly</t>
+          <t>globally</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>partly</t>
+          <t>globally</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3225,21 +2280,6 @@
       <c r="F64" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3249,17 +2289,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>958321137</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>periodically</t>
+          <t>good</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>periodically</t>
+          <t>good</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3270,21 +2310,6 @@
       <c r="F65" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3294,17 +2319,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3131232</t>
+          <t>31121</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>physically</t>
+          <t>half</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>physically</t>
+          <t>half</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3315,21 +2340,6 @@
       <c r="F66" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3339,17 +2349,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>31111</t>
+          <t>4209717107</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>positively</t>
+          <t>highly</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>positively</t>
+          <t>highly</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3359,22 +2369,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>1.0</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3384,17 +2379,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>71833</t>
+          <t>21111</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>presently</t>
+          <t>iirc</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>presently</t>
+          <t>iirc</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3405,21 +2400,6 @@
       <c r="F68" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3429,17 +2409,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>118912247</t>
+          <t>11296221711</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>previously</t>
+          <t>immediately</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>previously</t>
+          <t>immediately</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3450,21 +2430,6 @@
       <c r="F69" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3474,17 +2439,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>81811111617</t>
+          <t>12213</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>primarily</t>
+          <t>importantly</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>primarily</t>
+          <t>importantly</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3495,21 +2460,6 @@
       <c r="F70" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3519,17 +2469,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5241253</t>
+          <t>21317</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>prior</t>
+          <t>increasingly</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>prior</t>
+          <t>increasingly</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3540,21 +2490,6 @@
       <c r="F71" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3564,17 +2499,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>11131</t>
+          <t>21121</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>proactively</t>
+          <t>independently</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>proactively</t>
+          <t>independently</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3584,22 +2519,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>1.0</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3609,17 +2529,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>22111</t>
+          <t>42314232</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>promptly</t>
+          <t>indirectly</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>promptly</t>
+          <t>indirectly</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3630,21 +2550,6 @@
       <c r="F73" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3654,17 +2559,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>25212</t>
+          <t>2335262</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>prospectively</t>
+          <t>individually</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>prospectively</t>
+          <t>individually</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3673,21 +2578,6 @@
         </is>
       </c>
       <c r="F74" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -3699,17 +2589,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>324510</t>
+          <t>422</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>rapidly</t>
+          <t>inherently</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>rapidly</t>
+          <t>inherently</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3718,21 +2608,6 @@
         </is>
       </c>
       <c r="F75" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -3744,17 +2619,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>14111</t>
+          <t>15621210146</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>readily</t>
+          <t>initially</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>readily</t>
+          <t>initially</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3765,21 +2640,6 @@
       <c r="F76" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3789,42 +2649,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>51212653</t>
+          <t>2931</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>recently</t>
+          <t>inside</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>recently</t>
+          <t>inside</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>IN</t>
         </is>
       </c>
     </row>
@@ -3834,17 +2679,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>81325766</t>
+          <t>211</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>regularly</t>
+          <t>intentionally</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>regularly</t>
+          <t>intentionally</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3853,21 +2698,6 @@
         </is>
       </c>
       <c r="F78" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -3879,17 +2709,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>148143</t>
+          <t>722313</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>reliably</t>
+          <t>internally</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>reliably</t>
+          <t>internally</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3898,21 +2728,6 @@
         </is>
       </c>
       <c r="F79" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -3924,17 +2739,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>28112</t>
+          <t>2211</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>responsibly</t>
+          <t>internationally</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>responsibly</t>
+          <t>internationally</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3945,21 +2760,6 @@
       <c r="F80" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -3969,17 +2769,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>93521236</t>
+          <t>1134121</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>separately</t>
+          <t>jointly</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>separately</t>
+          <t>jointly</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3988,21 +2788,6 @@
         </is>
       </c>
       <c r="F81" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -4014,17 +2799,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>153821711</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>significantly</t>
+          <t>judiciously</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>significantly</t>
+          <t>judiciously</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4033,21 +2818,6 @@
         </is>
       </c>
       <c r="F82" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -4059,17 +2829,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2413111</t>
+          <t>11012</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>simultaneously</t>
+          <t>kindly</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>simultaneously</t>
+          <t>kindly</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4080,21 +2850,6 @@
       <c r="F83" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4104,17 +2859,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>31043755</t>
+          <t>11283</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>solely</t>
+          <t>largely</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>solely</t>
+          <t>largely</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4125,21 +2880,6 @@
       <c r="F84" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4149,17 +2889,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>5535161</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>specifically</t>
+          <t>latest</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>specifically</t>
+          <t>latest</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4169,22 +2909,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>RBS</t>
         </is>
       </c>
     </row>
@@ -4194,17 +2919,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>11213</t>
+          <t>44624</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>strategically</t>
+          <t>legally</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>strategically</t>
+          <t>legally</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4215,21 +2940,6 @@
       <c r="F86" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4239,17 +2949,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>22393</t>
+          <t>2212</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>strongly</t>
+          <t>locally</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>strongly</t>
+          <t>locally</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4260,21 +2970,6 @@
       <c r="F87" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -4284,17 +2979,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>125176919628</t>
+          <t>82231</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>subsequently</t>
+          <t>long</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>subsequently</t>
+          <t>long</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4305,21 +3000,6 @@
       <c r="F88" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4329,17 +3009,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>8101165971</t>
+          <t>614591141</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>substantially</t>
+          <t>longer</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>substantially</t>
+          <t>longer</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4349,22 +3029,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>RBR</t>
         </is>
       </c>
     </row>
@@ -4374,17 +3039,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>241222</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>substantively</t>
+          <t>lower</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>substantively</t>
+          <t>lower</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4393,21 +3058,6 @@
         </is>
       </c>
       <c r="F90" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -4419,17 +3069,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>532841151</t>
+          <t>1161211</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>successfully</t>
+          <t>mandatorily</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>successfully</t>
+          <t>mandatorily</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4439,22 +3089,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>1.0</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4464,17 +3099,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>111721</t>
+          <t>268771411</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>sustainably</t>
+          <t>materially</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>sustainably</t>
+          <t>materially</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4485,21 +3120,6 @@
       <c r="F92" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>conj</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4509,17 +3129,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>42816221914118</t>
+          <t>311</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>thereof</t>
+          <t>meaningfully</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>thereof</t>
+          <t>meaningfully</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4530,21 +3150,6 @@
       <c r="F93" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -4554,17 +3159,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>14124</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ultimately</t>
+          <t>monthly</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ultimately</t>
+          <t>monthly</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4573,21 +3178,6 @@
         </is>
       </c>
       <c r="F94" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -4599,42 +3189,27 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>14612</t>
+          <t>2131112</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>versus</t>
+          <t>nadu</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>versus</t>
+          <t>nadu</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>prep</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>RB</t>
         </is>
       </c>
     </row>
@@ -4644,17 +3219,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>105923125</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>wholly</t>
+          <t>nationally</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>wholly</t>
+          <t>nationally</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4663,21 +3238,6 @@
         </is>
       </c>
       <c r="F96" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -4689,17 +3249,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>12511</t>
+          <t>211</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>widely</t>
+          <t>naturally</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>widely</t>
+          <t>naturally</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4710,21 +3270,6 @@
       <c r="F97" t="inlineStr">
         <is>
           <t>RB</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>advmod</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
@@ -4734,42 +3279,2067 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>neaps</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>neaps</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1121</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>necessarily</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>necessarily</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>newly</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>newly</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>11334222</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>notwithstanding</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>notwithstanding</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>nutritionally</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>nutritionally</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>22132411</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2932</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>onwards</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>onwards</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>originally</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>originally</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>overseas</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>overseas</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>21211</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>partially</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>partially</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>23111611</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>partly</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>partly</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>past</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>past</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>251183739</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>periodically</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>periodically</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>3122331</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>physically</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>physically</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>13111</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>positively</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>positively</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1412</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>potentially</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>potentially</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2211</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>predominantly</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>predominantly</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>71833</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>presently</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>presently</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>194218271</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>previously</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>previously</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>11681117181</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>primarily</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>primarily</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>5212453</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>prior</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>prior</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>11113</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>proactively</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>proactively</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>progressively</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>progressively</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>11212</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>promptly</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>promptly</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1311</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>properly</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>properly</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>12225</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>prospectively</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>prospectively</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>quickly</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>quickly</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>534210</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>rapidly</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>rapidly</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>14111</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>readily</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>readily</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>16152325</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>recently</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>recently</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>65672138</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>regularly</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>regularly</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>314418</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>reliably</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>reliably</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>18122</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>responsibly</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>responsibly</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>32152396</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>separately</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>separately</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>sharply</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>sharply</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>311151782</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>significantly</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>significantly</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>7241</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>similarly</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>similarly</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1111342</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>simultaneously</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>simultaneously</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>sincerely</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>sincerely</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>332119</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>so</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>so</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>3212</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>socially</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>socially</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>53351074</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>solely</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>solely</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>specially</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>specially</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>5151356</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>specifically</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>specifically</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>steadily</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>steadily</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>13211</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>strategically</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>strategically</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>strictly</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>strictly</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>23392</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>strongly</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>strongly</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>121917692856</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>subsequently</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>subsequently</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>8171659110</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>substantially</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>substantially</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>212224</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>substantively</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>substantively</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>811523451</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>successfully</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>successfully</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>112117</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>sustainably</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>sustainably</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>81622419281411</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>thereof</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>thereof</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>timely</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>timely</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1411</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>udin</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>udin</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>12144</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>ultimately</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>ultimately</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>unanimously</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>unanimously</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>61214</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>versus</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>versus</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1146</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>vide</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>vide</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>virtually</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>virtually</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>592311025</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>wholly</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>wholly</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>11215</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>widely</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>widely</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
           <t>11211</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>wise</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>wise</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>ADV</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>ROOT</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>nan</t>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>wkh</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>wkh</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>worldwide</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>worldwide</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>òaó</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>òaó</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>IN</t>
         </is>
       </c>
     </row>
